--- a/db_auto_usate.xlsx
+++ b/db_auto_usate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tummo\Documents\Boolean\EserciziBoolean\db-first\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180108B-5DFA-4A3D-9E6E-A7D14D099417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,269 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+  <si>
+    <t>AUTO USATE</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Modello</t>
+  </si>
+  <si>
+    <t>Carrozzeria</t>
+  </si>
+  <si>
+    <t>Numero Porte</t>
+  </si>
+  <si>
+    <t>Numero posti</t>
+  </si>
+  <si>
+    <t>Bagagliaio</t>
+  </si>
+  <si>
+    <t>Capacità serbatoio</t>
+  </si>
+  <si>
+    <t>Massa in ordine di marcia</t>
+  </si>
+  <si>
+    <t>Massa rimorchiabile max</t>
+  </si>
+  <si>
+    <t>Lunghezza</t>
+  </si>
+  <si>
+    <t>Larghezza</t>
+  </si>
+  <si>
+    <t>Altezza</t>
+  </si>
+  <si>
+    <t>Motore</t>
+  </si>
+  <si>
+    <t>Cilindrata</t>
+  </si>
+  <si>
+    <t>Alimentazione</t>
+  </si>
+  <si>
+    <t>Potenza max/regime</t>
+  </si>
+  <si>
+    <t>Coppia massima</t>
+  </si>
+  <si>
+    <t>Trazione</t>
+  </si>
+  <si>
+    <t>Cambio</t>
+  </si>
+  <si>
+    <t>Marce</t>
+  </si>
+  <si>
+    <t>Velocità max</t>
+  </si>
+  <si>
+    <t>Accelerazione 0-100km/h</t>
+  </si>
+  <si>
+    <t>Omologazione Antinquin.</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Airbag</t>
+  </si>
+  <si>
+    <t>NOME COLONNA</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+  </si>
+  <si>
+    <t>Passo</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
+  </si>
+  <si>
+    <t>VARCHAR(25)</t>
+  </si>
+  <si>
+    <t>VARCHAR(12)</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>Anno di produzione</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Data immatricolazione</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ATTRIBUTI</t>
+  </si>
+  <si>
+    <t>CHIAVI</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Targa</t>
+  </si>
+  <si>
+    <t>NOT_NULL</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>NOT_NULL, DEFAULT(1)</t>
+  </si>
+  <si>
+    <t>VALORI</t>
+  </si>
+  <si>
+    <t>SIGNIFICATO</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Benzina</t>
+  </si>
+  <si>
+    <t>Metano</t>
+  </si>
+  <si>
+    <t>Elettrica</t>
+  </si>
+  <si>
+    <t>Ibrida</t>
+  </si>
+  <si>
+    <t>NOT_NULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>AUTO INCREMENT, NOT_NULL</t>
+  </si>
+  <si>
+    <t>Due volumi</t>
+  </si>
+  <si>
+    <t>Cabrio</t>
+  </si>
+  <si>
+    <t>Tre volumi</t>
+  </si>
+  <si>
+    <t>Station wagon</t>
+  </si>
+  <si>
+    <t>Coupè</t>
+  </si>
+  <si>
+    <t>Suv e Fuoristrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monovolume </t>
+  </si>
+  <si>
+    <t>Pick-Up</t>
+  </si>
+  <si>
+    <t>Furgone</t>
+  </si>
+  <si>
+    <t>Telaio</t>
+  </si>
+  <si>
+    <t>Anteriore</t>
+  </si>
+  <si>
+    <t>Posteriore</t>
+  </si>
+  <si>
+    <t>Integrale</t>
+  </si>
+  <si>
+    <t>Automatico</t>
+  </si>
+  <si>
+    <t>Manuale</t>
+  </si>
+  <si>
+    <t>Sequenziale</t>
+  </si>
+  <si>
+    <t>0 Emissioni</t>
+  </si>
+  <si>
+    <t>Euro 1</t>
+  </si>
+  <si>
+    <t>Euro 0</t>
+  </si>
+  <si>
+    <t>Euro 2</t>
+  </si>
+  <si>
+    <t>Euro 3</t>
+  </si>
+  <si>
+    <t>Euro 4</t>
+  </si>
+  <si>
+    <t>Euro 5</t>
+  </si>
+  <si>
+    <t>Euro 6</t>
+  </si>
+  <si>
+    <t>Euro 6D TEMP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +294,116 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +411,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Colore 1" xfId="3" builtinId="31"/>
+    <cellStyle name="60% - Colore 1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% - Colore 5" xfId="6" builtinId="48"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8"/>
+    <cellStyle name="Colore 1" xfId="1" builtinId="29"/>
+    <cellStyle name="Colore 5" xfId="5" builtinId="45"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +764,743 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="16">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="15">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="15">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="15">
+        <v>7</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="16">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="15">
+        <v>9</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="16">
+        <v>10</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="15">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="16">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="15">
+        <v>3</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="16">
+        <v>4</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="15">
+        <v>5</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="15">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="16">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="15">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="15">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="16">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="15">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="15">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="16">
+        <v>2</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="15">
+        <v>3</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="15">
+        <v>4</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="16">
+        <v>5</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="15">
+        <v>6</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="15">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="16">
+        <v>8</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="15">
+        <v>9</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B62:C62"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B10" location="Foglio1!B35:C46" display="Carrozzeria" xr:uid="{FAAB05E6-821A-457B-B607-5423D10651B2}"/>
+    <hyperlink ref="B23" location="Foglio1!B48:C54" display="Alimentazione" xr:uid="{1C2CD573-FC03-4A1F-856C-65C5F01E02F8}"/>
+    <hyperlink ref="B26" location="Foglio1!B56:C60" display="Trazione" xr:uid="{BAFE0AAF-5959-4763-A362-7DFF2ACD379E}"/>
+    <hyperlink ref="B27" location="Foglio1!B62:C66" display="Cambio" xr:uid="{CFB132C6-79B8-4653-A3E2-5D153B655040}"/>
+    <hyperlink ref="B31" location="Foglio1!B68:C78" display="Omologazione Antinquin." xr:uid="{B8C7211B-D8BB-4D30-A98E-929824455939}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db_auto_usate.xlsx
+++ b/db_auto_usate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tummo\Documents\Boolean\EserciziBoolean\db-first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180108B-5DFA-4A3D-9E6E-A7D14D099417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D191962-C41D-4BA1-9850-A8A1A6C26643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
   <si>
     <t>AUTO USATE</t>
   </si>
@@ -280,13 +280,217 @@
   </si>
   <si>
     <t>Euro 6D TEMP</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>2.0 TFSI 252 CV quattro S tronic Business Sport</t>
+  </si>
+  <si>
+    <t>DC 234 VB</t>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>480 / 950 dm3</t>
+  </si>
+  <si>
+    <t>58 litri</t>
+  </si>
+  <si>
+    <t>1.700 kg</t>
+  </si>
+  <si>
+    <t>1.610 kg</t>
+  </si>
+  <si>
+    <t>473 cm</t>
+  </si>
+  <si>
+    <t>184 cm</t>
+  </si>
+  <si>
+    <t>139 cm</t>
+  </si>
+  <si>
+    <t>283 cm</t>
+  </si>
+  <si>
+    <t>4 cilindri in linea</t>
+  </si>
+  <si>
+    <t>1.984 cc</t>
+  </si>
+  <si>
+    <t>185 kW (152 CV) 5.000 giri/min</t>
+  </si>
+  <si>
+    <t>370 Nm</t>
+  </si>
+  <si>
+    <t>250 km/h</t>
+  </si>
+  <si>
+    <t>6,0 secondi</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>SE 578 BB</t>
+  </si>
+  <si>
+    <t>390 / - dm3</t>
+  </si>
+  <si>
+    <t>52 litri</t>
+  </si>
+  <si>
+    <t>0 kg</t>
+  </si>
+  <si>
+    <t>458 cm</t>
+  </si>
+  <si>
+    <t>189 cm</t>
+  </si>
+  <si>
+    <t>140 cm</t>
+  </si>
+  <si>
+    <t>275 cm</t>
+  </si>
+  <si>
+    <t>6 cilindri in linea</t>
+  </si>
+  <si>
+    <t>2.993 cc</t>
+  </si>
+  <si>
+    <t>338 kW (460 CV) 6.250 giri/min</t>
+  </si>
+  <si>
+    <t>550 Nm</t>
+  </si>
+  <si>
+    <t>4,1 secondi</t>
+  </si>
+  <si>
+    <t>Omologazione antinquin.</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Brera</t>
+  </si>
+  <si>
+    <t>DD 927 CZ</t>
+  </si>
+  <si>
+    <t>300 / 900 dm3</t>
+  </si>
+  <si>
+    <t>70 litri</t>
+  </si>
+  <si>
+    <t>1.675 kg</t>
+  </si>
+  <si>
+    <t>1.500 kg</t>
+  </si>
+  <si>
+    <t>441 cm</t>
+  </si>
+  <si>
+    <t>183 cm</t>
+  </si>
+  <si>
+    <t>134 cm</t>
+  </si>
+  <si>
+    <t>253 cm</t>
+  </si>
+  <si>
+    <t>5 cilindri in linea</t>
+  </si>
+  <si>
+    <t>2.387 cc</t>
+  </si>
+  <si>
+    <t>154 kW (209 CV) 4.000 giri/min</t>
+  </si>
+  <si>
+    <t>400 Nm</t>
+  </si>
+  <si>
+    <t>230 km/h</t>
+  </si>
+  <si>
+    <t>7,9 secondi</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Model Y Performance AWD</t>
+  </si>
+  <si>
+    <t>AC 436 VV</t>
+  </si>
+  <si>
+    <t>- / 2.158 dm3</t>
+  </si>
+  <si>
+    <t>0 litri</t>
+  </si>
+  <si>
+    <t>2.077 kg</t>
+  </si>
+  <si>
+    <t>1.600 kg</t>
+  </si>
+  <si>
+    <t>475 cm</t>
+  </si>
+  <si>
+    <t>192 cm</t>
+  </si>
+  <si>
+    <t>162 cm</t>
+  </si>
+  <si>
+    <t>289 cm</t>
+  </si>
+  <si>
+    <t>Elettrico</t>
+  </si>
+  <si>
+    <t>0 cc</t>
+  </si>
+  <si>
+    <t>155 kW (211 CV) -</t>
+  </si>
+  <si>
+    <t>0 Nm</t>
+  </si>
+  <si>
+    <t>3,7 secondi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +564,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +630,23 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -432,7 +677,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -441,13 +686,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -463,29 +707,99 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="11">
     <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Colore 2" xfId="9" builtinId="34"/>
     <cellStyle name="40% - Colore 1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - Colore 2" xfId="10" builtinId="35"/>
     <cellStyle name="60% - Colore 1" xfId="4" builtinId="32"/>
     <cellStyle name="60% - Colore 5" xfId="6" builtinId="48"/>
     <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8"/>
     <cellStyle name="Colore 1" xfId="1" builtinId="29"/>
+    <cellStyle name="Colore 2" xfId="8" builtinId="33"/>
     <cellStyle name="Colore 5" xfId="5" builtinId="45"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -765,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E78"/>
+  <dimension ref="B1:AJ78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,712 +1092,1188 @@
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.6328125" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.7265625" customWidth="1"/>
+    <col min="28" max="28" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.81640625" customWidth="1"/>
+    <col min="36" max="36" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:36" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:36" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="H3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="25">
+        <v>2016</v>
+      </c>
+      <c r="L4" s="27">
+        <v>42867</v>
+      </c>
+      <c r="M4" s="29">
+        <v>3</v>
+      </c>
+      <c r="N4" s="25">
+        <v>5</v>
+      </c>
+      <c r="O4" s="25">
+        <v>5</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="AA4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH4" s="30">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="G5" s="36">
+        <v>2</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="26">
+        <v>2021</v>
+      </c>
+      <c r="L5" s="28">
+        <v>44434</v>
+      </c>
+      <c r="M5" s="31">
+        <v>5</v>
+      </c>
+      <c r="N5" s="26">
+        <v>2</v>
+      </c>
+      <c r="O5" s="26">
+        <v>4</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="32">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="AE5" s="20">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH5" s="32">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="35">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="25">
+        <v>2005</v>
+      </c>
+      <c r="L6" s="27">
+        <v>40257</v>
+      </c>
+      <c r="M6" s="39">
+        <v>5</v>
+      </c>
+      <c r="N6" s="25">
+        <v>3</v>
+      </c>
+      <c r="O6" s="25">
+        <v>4</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="30">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH6" s="30">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="36">
+        <v>4</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="26">
+        <v>2021</v>
+      </c>
+      <c r="L7" s="28">
+        <v>44857</v>
+      </c>
+      <c r="M7" s="31">
+        <v>6</v>
+      </c>
+      <c r="N7" s="26">
+        <v>5</v>
+      </c>
+      <c r="O7" s="26">
+        <v>5</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:36" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="35" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="13">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="C41" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+      <c r="C42" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="12">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="C43" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="13">
         <v>8</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
+      <c r="C44" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="12">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
+      <c r="C45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="11" t="s">
+      <c r="C46" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="13">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="12">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="13">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="12">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13" t="s">
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C57" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15">
+    <row r="58" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="12">
         <v>1</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="16">
+      <c r="C58" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="13">
         <v>2</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="15">
+      <c r="C59" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="12">
         <v>3</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="16">
-        <v>4</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="15">
-        <v>5</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="16">
-        <v>6</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="15">
-        <v>7</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="16">
-        <v>8</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="15">
-        <v>9</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="16">
-        <v>10</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="15">
-        <v>1</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="16">
-        <v>2</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="15">
-        <v>3</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="16">
-        <v>4</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="15">
-        <v>5</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="16">
-        <v>2</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15">
-        <v>3</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="15">
+      <c r="B64" s="12">
         <v>1</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="16">
+      <c r="B65" s="13">
         <v>2</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="15">
+      <c r="B66" s="12">
         <v>3</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13" t="s">
+      <c r="B68" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="12">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="12">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="13">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="12">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="12">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="13">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="12">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="12">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="13">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C78" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="15">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="16">
-        <v>2</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="15">
-        <v>3</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B73" s="15">
-        <v>4</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="16">
-        <v>5</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="15">
-        <v>6</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B76" s="15">
-        <v>7</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B77" s="16">
-        <v>8</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="15">
-        <v>9</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B69:C78">
+    <sortCondition ref="B68:B78"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B2:E2"/>
@@ -1499,6 +2289,31 @@
     <hyperlink ref="B26" location="Foglio1!B56:C60" display="Trazione" xr:uid="{BAFE0AAF-5959-4763-A362-7DFF2ACD379E}"/>
     <hyperlink ref="B27" location="Foglio1!B62:C66" display="Cambio" xr:uid="{CFB132C6-79B8-4653-A3E2-5D153B655040}"/>
     <hyperlink ref="B31" location="Foglio1!B68:C78" display="Omologazione Antinquin." xr:uid="{B8C7211B-D8BB-4D30-A98E-929824455939}"/>
+    <hyperlink ref="M3" location="Foglio1!B35:C46" display="Carrozzeria" xr:uid="{DFFE2C6D-D752-4303-A0E8-206B625A2690}"/>
+    <hyperlink ref="Z3" location="Foglio1!B48:C54" display="Alimentazione" xr:uid="{78F352CC-FABB-4C11-940A-D29264A6EC72}"/>
+    <hyperlink ref="AC3" location="Foglio1!B56:C60" display="Trazione" xr:uid="{D1050EC5-346F-453E-B328-E3A92A0B6548}"/>
+    <hyperlink ref="AD3" location="Foglio1!B62:C66" display="Cambio" xr:uid="{BC35118A-AAA2-406D-8CF6-A49321FBACD3}"/>
+    <hyperlink ref="AH3" location="Foglio1!B68:C78" display="Omologazione Antinquin." xr:uid="{324C0C67-D27E-412D-9729-BFF1F55BF553}"/>
+    <hyperlink ref="M4" location="Foglio1!B39:C39" display="Foglio1!B39:C39" xr:uid="{6612A43C-2DE5-4A52-B269-004DBC7FC25C}"/>
+    <hyperlink ref="Z4" location="Foglio1!B51:C51" display="Foglio1!B51:C51" xr:uid="{13D82AD4-4DC5-43E8-9612-1105F099BED4}"/>
+    <hyperlink ref="AC4" location="Foglio1!B60:C60" display="Foglio1!B60:C60" xr:uid="{FBEED849-B683-4D70-ACB3-96F2D5F82B03}"/>
+    <hyperlink ref="AD4" location="Foglio1!B66:C66" display="Foglio1!B66:C66" xr:uid="{9333CFC1-1C8A-4859-AE8B-5BE755E4D203}"/>
+    <hyperlink ref="AH4" location="Foglio1!B77:C77" display="Foglio1!B77:C77" xr:uid="{1AD548BF-35F0-4ED3-94B3-81A0122AF335}"/>
+    <hyperlink ref="M5" location="Foglio1!B41:C41" display="Foglio1!B41:C41" xr:uid="{696FBC7E-01EB-4FFB-8CE7-FA510804CE13}"/>
+    <hyperlink ref="Z5" location="Foglio1!B51:C51" display="Foglio1!B51:C51" xr:uid="{18A5DADD-7455-4E16-8229-710AF6B363FF}"/>
+    <hyperlink ref="AC5" location="Foglio1!B59:C59" display="Foglio1!B59:C59" xr:uid="{81B27738-64D8-4DD2-AE3C-15376CE2268F}"/>
+    <hyperlink ref="AD5" location="Foglio1!B66:C66" display="Foglio1!B66:C66" xr:uid="{13562920-F360-4BCD-9A0F-47111A790D91}"/>
+    <hyperlink ref="AH5" location="Foglio1!B77:C77" display="Foglio1!B77:C77" xr:uid="{1BE7BF6F-1563-4D6D-B138-B390506EC92A}"/>
+    <hyperlink ref="M6" location="Foglio1!B41:C41" display="Foglio1!B41:C41" xr:uid="{3C530B6A-1304-4ADD-BB43-AA674D9D348F}"/>
+    <hyperlink ref="Z6" location="Foglio1!B50:C50" display="Foglio1!B50:C50" xr:uid="{32F840D0-ECEE-4547-BB5E-187B1CD41B52}"/>
+    <hyperlink ref="AC6" location="Foglio1!B58:C58" display="Foglio1!B58:C58" xr:uid="{1171C720-8238-429A-AE00-63BE21A5D69D}"/>
+    <hyperlink ref="AD6" location="Foglio1!B65:C65" display="Foglio1!B65:C65" xr:uid="{E6C16269-691D-4FA0-844A-8E8B7FD05073}"/>
+    <hyperlink ref="AH6" location="Foglio1!B74:C74" display="Foglio1!B74:C74" xr:uid="{C10C09B2-6FD6-4BBA-AA86-6D2764FFA260}"/>
+    <hyperlink ref="M7" location="Foglio1!B42:C42" display="Foglio1!B42:C42" xr:uid="{DE174D7C-683F-4B74-BDC8-24F8ADFB6B89}"/>
+    <hyperlink ref="Z7" location="Foglio1!B53:C53" display="Foglio1!B53:C53" xr:uid="{E0687E21-54FC-4102-825B-46044DA5721A}"/>
+    <hyperlink ref="AC7" location="Foglio1!B60:C60" display="Foglio1!B60:C60" xr:uid="{927F43FF-5298-4EE6-9345-5562E970587F}"/>
+    <hyperlink ref="AD7" location="Foglio1!B65:C65" display="Foglio1!B65:C65" xr:uid="{478FE2C1-E7D2-4269-85D5-1DB0CB71D2C7}"/>
+    <hyperlink ref="AH7" location="Foglio1!B69:C69" display="Foglio1!B69:C69" xr:uid="{ACAAD5D7-4676-462D-ADFC-DBAAE01CB4E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/db_auto_usate.xlsx
+++ b/db_auto_usate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tummo\Documents\Boolean\EserciziBoolean\db-first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D191962-C41D-4BA1-9850-A8A1A6C26643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB4485-C9DD-4E9F-B13D-0994477057A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,7 +1082,7 @@
   <dimension ref="B1:AJ78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1880,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>47</v>
